--- a/pyflaskpractice/simple/penalcode/crimeoftheft/sentencingstart.xlsx
+++ b/pyflaskpractice/simple/penalcode/crimeoftheft/sentencingstart.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\software\developertools\py\pyCharm\charm2016\pycharmproject\pycodingpractice\pyflaskpractice\simple\penalcode\crimeoftheft\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="盗窃" sheetId="1" r:id="rId1"/>
@@ -13,12 +18,12 @@
     <sheet name="强奸" sheetId="4" r:id="rId4"/>
     <sheet name="贩卖毒品" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="98">
   <si>
     <t>盗窃方式(m)\盗窃金额(元)</t>
   </si>
@@ -47,6 +52,12 @@
     <t>0-1000</t>
   </si>
   <si>
+    <t>[0,]</t>
+  </si>
+  <si>
+    <t>[2,]</t>
+  </si>
+  <si>
     <t>1000-2000</t>
   </si>
   <si>
@@ -56,286 +67,322 @@
     <t>25000-50000</t>
   </si>
   <si>
+    <t>[42,]</t>
+  </si>
+  <si>
+    <t>200000-400000</t>
+  </si>
+  <si>
+    <t>[132,]</t>
+  </si>
+  <si>
     <t>400000以上</t>
   </si>
   <si>
-    <t>[0,]</t>
+    <t>诈骗罪情节/金额</t>
+  </si>
+  <si>
+    <t>普通诈骗</t>
+  </si>
+  <si>
+    <t>二条</t>
+  </si>
+  <si>
+    <t>诈骗集团首要分子</t>
+  </si>
+  <si>
+    <t>0-5000</t>
+  </si>
+  <si>
+    <t>5000-70000</t>
+  </si>
+  <si>
+    <t>[6,12]</t>
+  </si>
+  <si>
+    <t>70000-80000</t>
+  </si>
+  <si>
+    <t>[36,48]</t>
+  </si>
+  <si>
+    <t>80000-450000</t>
+  </si>
+  <si>
+    <t>450000-500000</t>
+  </si>
+  <si>
+    <t>[120,144]</t>
+  </si>
+  <si>
+    <t>500000以上</t>
+  </si>
+  <si>
+    <t>敲诈勒索罪情节/涉及金额</t>
+  </si>
+  <si>
+    <t>普通犯罪</t>
+  </si>
+  <si>
+    <t>多次敲诈勒索</t>
+  </si>
+  <si>
+    <t>0-1500</t>
+  </si>
+  <si>
+    <t>1500-3000</t>
+  </si>
+  <si>
+    <t>[12,36]</t>
+  </si>
+  <si>
+    <t>3000-40000</t>
+  </si>
+  <si>
+    <t>40000-50000</t>
+  </si>
+  <si>
+    <t>[36,60]</t>
+  </si>
+  <si>
+    <t>50000-320000</t>
+  </si>
+  <si>
+    <t>320000-400000</t>
+  </si>
+  <si>
+    <t>强奸妇女1人</t>
+  </si>
+  <si>
+    <t>强奸妇女2人</t>
+  </si>
+  <si>
+    <t>[60,96]</t>
+  </si>
+  <si>
+    <t>强奸幼女1人</t>
+  </si>
+  <si>
+    <t>[48,72]</t>
+  </si>
+  <si>
+    <t>强奸幼女2人</t>
+  </si>
+  <si>
+    <t>[72,108]</t>
+  </si>
+  <si>
+    <t>强奸妇女、幼女3人</t>
+  </si>
+  <si>
+    <t>[120,156]</t>
+  </si>
+  <si>
+    <t>在公共场所当众强奸妇女</t>
+  </si>
+  <si>
+    <t>轮奸妇女</t>
+  </si>
+  <si>
+    <t>至被害人重伤或者其他严重后果</t>
+  </si>
+  <si>
+    <t>情节恶劣</t>
+  </si>
+  <si>
+    <t>毒品名称/质量</t>
+  </si>
+  <si>
+    <t>海洛因,甲基苯丙胺,可卡因</t>
+  </si>
+  <si>
+    <t>马飞或尔雅双安非他命等苯丙胺类</t>
+  </si>
+  <si>
+    <t>鸦片</t>
+  </si>
+  <si>
+    <t>氯胺酮</t>
+  </si>
+  <si>
+    <t>美沙酮</t>
+  </si>
+  <si>
+    <t>三唑仑,安眠酮</t>
+  </si>
+  <si>
+    <t>咖啡因</t>
+  </si>
+  <si>
+    <t>二氢埃托啡</t>
+  </si>
+  <si>
+    <t>0-10克</t>
+  </si>
+  <si>
+    <t>0-20克</t>
+  </si>
+  <si>
+    <t>0-100克</t>
+  </si>
+  <si>
+    <t>0-200克</t>
+  </si>
+  <si>
+    <t>0-10000克</t>
+  </si>
+  <si>
+    <t>0-0.2克</t>
+  </si>
+  <si>
+    <t>0-10克(严重)</t>
+  </si>
+  <si>
+    <t>0-20克(严重)</t>
+  </si>
+  <si>
+    <t>0-100克(严重)</t>
+  </si>
+  <si>
+    <t>0-200克(严重)</t>
+  </si>
+  <si>
+    <t>0-10000克(严重)</t>
+  </si>
+  <si>
+    <t>0-0.2克(严重)</t>
+  </si>
+  <si>
+    <t>10-50克</t>
+  </si>
+  <si>
+    <t>20-100克</t>
+  </si>
+  <si>
+    <t>100-500克</t>
+  </si>
+  <si>
+    <t>200-1000克</t>
+  </si>
+  <si>
+    <t>10000-50000克</t>
+  </si>
+  <si>
+    <t>0.2-1克</t>
+  </si>
+  <si>
+    <t>50-300克</t>
+  </si>
+  <si>
+    <t>[180,]</t>
+  </si>
+  <si>
+    <t>100-600克</t>
+  </si>
+  <si>
+    <t>1000-6000克</t>
+  </si>
+  <si>
+    <t>500-3000克</t>
+  </si>
+  <si>
+    <t>50000-300000克</t>
+  </si>
+  <si>
+    <t>200000-1200000克</t>
+  </si>
+  <si>
+    <t>1-6克</t>
+  </si>
+  <si>
+    <r>
+      <t>40</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-200000克</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>[2,]</t>
+    <t>刑期</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>强奸/人数</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>50000-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0000</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,]</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>[6,]</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>[42,]</t>
+    <t>[36,]</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>[132,]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>50000-150000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>150000-200000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>诈骗罪情节/金额</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-5000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>5000-70000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>70000-80000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>80000-450000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>450000-500000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>500000以上</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通诈骗</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[0,]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[6,12]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[36,48]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[120,144]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>二条</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>诈骗集团首要分子</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>敲诈勒索罪情节/涉及金额</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-1500</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1500-3000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3000-40000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>40000-50000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>50000-320000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>320000-400000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>400000以上</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>多次敲诈勒索</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通犯罪</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[12,36]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[36,60]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>200000-400000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>马飞或尔雅双安非他命等苯丙胺类</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>氯胺酮</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>美沙酮</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>二氢埃托啡</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-10克</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[84,96]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.2-1克</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[84,96]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>40-200千克</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>10-50千克</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[84,96]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>200-10000克</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>100-500克</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>200-1000克</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[84,96]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>20-100克</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>10-50克</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-0.2克(严重)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[36,48]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-10千克(严重)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-100克(严重)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-200克(严重)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1,12]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-20克(严重)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-10克(严重)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-0.2克</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-10千克</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-100克</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1,12]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1,12]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-200克</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-20克</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>咖啡因</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>三唑仑,安眠酮</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>鸦片</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>海洛因,甲基苯丙胺,可卡因</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>毒品名称/质量</t>
+    <t>[84,]</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -343,12 +390,46 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -358,20 +439,6 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -455,7 +522,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -478,12 +545,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -782,15 +853,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="34.5" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -822,30 +893,30 @@
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
     </row>
-    <row r="2" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
@@ -853,30 +924,30 @@
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
     </row>
-    <row r="3" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="C3" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
@@ -884,30 +955,30 @@
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
     </row>
-    <row r="4" spans="1:14" ht="23.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
@@ -915,30 +986,30 @@
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
     </row>
-    <row r="5" spans="1:14" ht="23.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="D5" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="I5" s="6"/>
       <c r="K5" s="7"/>
@@ -947,29 +1018,29 @@
       <c r="N5" s="6"/>
     </row>
     <row r="6" spans="1:14" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>17</v>
+      <c r="A6" s="9" t="s">
+        <v>93</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I6" s="6"/>
       <c r="K6" s="7"/>
@@ -977,30 +1048,30 @@
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
     </row>
-    <row r="7" spans="1:14" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" ht="23.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I7" s="6"/>
       <c r="K7" s="7"/>
@@ -1008,12 +1079,12 @@
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
     </row>
-    <row r="8" spans="1:14" ht="23.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>16</v>
@@ -1034,49 +1105,18 @@
         <v>16</v>
       </c>
       <c r="I8" s="6"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
     </row>
-    <row r="9" spans="1:14" ht="23.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>16</v>
-      </c>
+    <row r="9" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I9" s="6"/>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
     </row>
-    <row r="10" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="I10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-    </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -1085,110 +1125,119 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.375" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="17.25" customWidth="1"/>
+    <col min="4" max="4" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" t="s">
-        <v>26</v>
-      </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
         <v>29</v>
       </c>
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -1197,332 +1246,483 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
         <v>33</v>
-      </c>
-      <c r="B1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>34</v>
       </c>
+      <c r="B2" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>35</v>
       </c>
+      <c r="B3" s="8" t="s">
+        <v>94</v>
+      </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
         <v>36</v>
       </c>
-      <c r="B4" t="s">
-        <v>43</v>
-      </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s">
         <v>39</v>
       </c>
-      <c r="B7" t="s">
-        <v>44</v>
-      </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="27.75" customWidth="1"/>
+    <col min="2" max="5" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M43" sqref="M43"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.75" customWidth="1"/>
+    <col min="7" max="7" width="14.125" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="B1" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="C1" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D1" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="E1" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="F1" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="G1" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="H1" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="I1" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F4" t="s">
-        <v>74</v>
+        <v>66</v>
+      </c>
+      <c r="E4" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>73</v>
-      </c>
-      <c r="E5" t="s">
-        <v>68</v>
+        <v>67</v>
+      </c>
+      <c r="D5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>68</v>
+      </c>
+      <c r="G6" t="s">
+        <v>95</v>
+      </c>
+      <c r="H6" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G7" t="s">
-        <v>68</v>
+        <v>69</v>
+      </c>
+      <c r="I7" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>70</v>
       </c>
-      <c r="B8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" t="s">
-        <v>68</v>
+      <c r="B8" s="8" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="I9" t="s">
-        <v>68</v>
+        <v>71</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>67</v>
-      </c>
-      <c r="B10" t="s">
-        <v>64</v>
+        <v>72</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>66</v>
-      </c>
-      <c r="B11" t="s">
-        <v>64</v>
+        <v>73</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B12" t="s">
-        <v>64</v>
+        <v>74</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>63</v>
-      </c>
-      <c r="B13" t="s">
-        <v>29</v>
+        <v>75</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>62</v>
-      </c>
-      <c r="B14" t="s">
-        <v>53</v>
+        <v>76</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" t="s">
-        <v>60</v>
+        <v>77</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>59</v>
-      </c>
-      <c r="B16" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+        <v>78</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>58</v>
-      </c>
-      <c r="B17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+        <v>79</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+        <v>80</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A19" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+        <v>81</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>86</v>
+      </c>
+      <c r="E24" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>85</v>
+      </c>
+      <c r="F25" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>87</v>
+      </c>
+      <c r="G26" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>88</v>
+      </c>
+      <c r="H27" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>89</v>
+      </c>
+      <c r="I28" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>